--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -11,10 +11,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'振休確認表(日数管理_紐付あり_年月日)'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -332,25 +331,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -359,66 +418,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -697,366 +696,367 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="9.75"/>
+  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="6.75" style="27"/>
-    <col min="10" max="19" width="6.75" style="28"/>
-    <col min="20" max="20" width="6.75" style="30"/>
-    <col min="21" max="16384" width="6.75" style="27"/>
+    <col min="1" max="1" width="13.75" style="16" customWidth="1"/>
+    <col min="2" max="9" width="6.375" style="16"/>
+    <col min="10" max="19" width="6.375" style="17"/>
+    <col min="20" max="20" width="6.375" style="19"/>
+    <col min="21" max="16384" width="6.375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" ht="10.5" thickBot="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="1:21" ht="10.5" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="11"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="21"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
+    <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="24"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="28"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="28"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
+    </row>
+    <row r="12" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="T13" s="29"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="T14" s="29"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="T15" s="29"/>
-    </row>
-    <row r="20" spans="1:19" s="30" customFormat="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-    </row>
-    <row r="21" spans="1:19" s="30" customFormat="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-    </row>
-    <row r="22" spans="1:19" s="30" customFormat="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:21" ht="12.75" customHeight="1">
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="1:21" ht="12.75" customHeight="1">
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="1:21" ht="12.75" customHeight="1">
+      <c r="T15" s="18"/>
+    </row>
+    <row r="20" spans="1:19" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" spans="1:19" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+    </row>
+    <row r="22" spans="1:19" s="19" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -1099,16 +1099,16 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -7,11 +7,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="振休確認表(日数管理_紐付あり_年月日)" sheetId="1" r:id="rId1"/>
+    <sheet name="振休確認表(日数管理_紐付あり_年月日) (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="振休確認表(日数管理_紐付あり_年月日)" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'振休確認表(日数管理_紐付あり_年月日)'!$1:$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'振休確認表(日数管理_紐付あり_年月日) (2)'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'振休確認表(日数管理_紐付あり_年月日) (2)'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -101,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -137,39 +140,11 @@
       <left style="dotted">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -243,9 +218,76 @@
     </border>
     <border>
       <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -258,9 +300,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -273,9 +313,7 @@
       <top style="dotted">
         <color auto="1"/>
       </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -286,6 +324,32 @@
       <top style="dotted">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="dotted">
         <color auto="1"/>
       </bottom>
@@ -295,13 +359,54 @@
       <left style="dotted">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right style="dotted">
         <color auto="1"/>
       </right>
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -314,7 +419,7 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -327,51 +432,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -386,38 +461,77 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -701,21 +815,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="16" customWidth="1"/>
-    <col min="2" max="9" width="6.375" style="16"/>
-    <col min="10" max="19" width="6.375" style="17"/>
-    <col min="20" max="20" width="6.375" style="19"/>
-    <col min="21" max="16384" width="6.375" style="16"/>
+    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
+    <col min="2" max="9" width="6.375" style="6"/>
+    <col min="10" max="19" width="6.375" style="7"/>
+    <col min="20" max="20" width="6.375" style="9"/>
+    <col min="21" max="16384" width="6.375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -732,348 +846,348 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="24"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="19"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="24"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="19"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="28"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="28"/>
-    </row>
-    <row r="6" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="2"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
       <c r="A11" s="27"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="12"/>
-    </row>
-    <row r="12" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="29"/>
+    </row>
+    <row r="12" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1">
-      <c r="T13" s="18"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1">
-      <c r="T14" s="18"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1">
-      <c r="T15" s="18"/>
-    </row>
-    <row r="20" spans="1:19" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-    </row>
-    <row r="21" spans="1:19" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-    </row>
-    <row r="22" spans="1:19" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="20" spans="1:19" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B4:B5"/>
@@ -1084,28 +1198,28 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="S2:S3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1115,4 +1229,33 @@
 page&amp;P</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="J1:T5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
+    <col min="2" max="9" width="6.375" style="6"/>
+    <col min="10" max="19" width="6.375" style="7"/>
+    <col min="20" max="20" width="6.375" style="9"/>
+    <col min="21" max="16384" width="6.375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customHeight="1"/>
+    <row r="2" ht="15" customHeight="1"/>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="15" customHeight="1"/>
+    <row r="5" ht="15" customHeight="1"/>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -104,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -391,6 +391,32 @@
       <top style="dotted">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -400,25 +426,8 @@
       <left style="dotted">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -432,7 +441,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,6 +476,60 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -476,61 +539,13 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -823,13 +838,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -846,122 +861,122 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="17"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="33"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="33"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A7" s="13"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -984,7 +999,7 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1007,7 +1022,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1029,84 +1044,488 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
+    <row r="10" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29"/>
-    </row>
-    <row r="12" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+    </row>
+    <row r="15" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="16"/>
+    </row>
+    <row r="16" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="33"/>
-    </row>
-    <row r="13" spans="1:21" ht="12.75" customHeight="1">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+    </row>
+    <row r="18" spans="1:21" ht="12.75" customHeight="1">
+      <c r="U18" s="9"/>
+    </row>
+    <row r="19" spans="1:21" ht="12.75" customHeight="1">
+      <c r="U19" s="9"/>
+    </row>
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="U22" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　
+page&amp;P</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
+    <col min="2" max="9" width="6.375" style="6"/>
+    <col min="10" max="19" width="6.375" style="7"/>
+    <col min="20" max="20" width="6.375" style="9"/>
+    <col min="21" max="16384" width="6.375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" ht="12.75" customHeight="1">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" ht="12.75" customHeight="1">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" ht="12.75" customHeight="1">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" ht="12.75" customHeight="1">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" ht="12.75" customHeight="1">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="12.75" customHeight="1">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" ht="12.75" customHeight="1">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" ht="12.75" customHeight="1">
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="12.75" customHeight="1">
+    <row r="14" spans="1:20" ht="12.75" customHeight="1">
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:21" ht="12.75" customHeight="1">
+    <row r="15" spans="1:20" ht="12.75" customHeight="1">
       <c r="T15" s="8"/>
     </row>
     <row r="20" spans="1:19" s="9" customFormat="1" ht="12.75" customHeight="1">
@@ -1173,87 +1592,6 @@
       <c r="S22" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　
-page&amp;P</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:T5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
-    <col min="2" max="9" width="6.375" style="6"/>
-    <col min="10" max="19" width="6.375" style="7"/>
-    <col min="20" max="20" width="6.375" style="9"/>
-    <col min="21" max="16384" width="6.375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customHeight="1"/>
-    <row r="2" ht="15" customHeight="1"/>
-    <row r="3" ht="15" customHeight="1"/>
-    <row r="4" ht="15" customHeight="1"/>
-    <row r="5" ht="15" customHeight="1"/>
-  </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3SI-L164-VIETTX\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D9CC4-6AD3-4C9F-A969-D146F1B0FD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="振休確認表(日数管理_紐付あり_年月日) (2)" sheetId="4" r:id="rId1"/>
@@ -16,7 +22,18 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'振休確認表(日数管理_紐付あり_年月日) (2)'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]0"/>
   </numFmts>
@@ -93,14 +110,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FF9BC2E6"/>
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -452,10 +469,10 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -476,13 +493,13 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,19 +508,46 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,53 +556,34 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 13" xfId="1"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9BC2E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -821,30 +846,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="10.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
     <col min="2" max="9" width="6.375" style="6"/>
     <col min="10" max="19" width="6.375" style="7"/>
     <col min="20" max="20" width="6.375" style="9"/>
-    <col min="21" max="16384" width="6.375" style="6"/>
+    <col min="21" max="21" width="6.375" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="6.375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+    <row r="1" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -860,8 +886,8 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="26"/>
+    <row r="2" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A2" s="34"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -872,9 +898,9 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
@@ -883,8 +909,8 @@
       <c r="T2" s="27"/>
       <c r="U2" s="28"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="26"/>
+    <row r="3" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="34"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -895,9 +921,9 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
@@ -906,77 +932,77 @@
       <c r="T3" s="27"/>
       <c r="U3" s="28"/>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="33"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="33"/>
-    </row>
-    <row r="6" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-    </row>
-    <row r="7" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A7" s="31"/>
+    <row r="4" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+    </row>
+    <row r="7" spans="1:21" ht="10.5" customHeight="1">
+      <c r="A7" s="22"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -998,8 +1024,8 @@
       <c r="T7" s="11"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:21" ht="10.5" customHeight="1">
+      <c r="A8" s="23"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1021,8 +1047,8 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:21" ht="10.5" customHeight="1">
+      <c r="A9" s="24"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1044,8 +1070,8 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:21" ht="10.5" customHeight="1">
+      <c r="A10" s="24"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -1067,8 +1093,8 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:21" ht="10.5" customHeight="1">
+      <c r="A11" s="22"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1090,8 +1116,8 @@
       <c r="T11" s="11"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:21" ht="10.5" customHeight="1">
+      <c r="A12" s="23"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1113,8 +1139,8 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A13" s="20"/>
+    <row r="13" spans="1:21" ht="10.5" customHeight="1">
+      <c r="A13" s="24"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1136,8 +1162,8 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="21"/>
+    <row r="14" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A14" s="30"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -1159,8 +1185,8 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:21" ht="10.5" customHeight="1">
+      <c r="A15" s="31"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1182,38 +1208,38 @@
       <c r="T15" s="15"/>
       <c r="U15" s="16"/>
     </row>
-    <row r="16" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34" t="s">
+    <row r="16" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-    </row>
-    <row r="18" spans="1:21" ht="12.75" customHeight="1">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="21"/>
+    </row>
+    <row r="18" spans="1:21" ht="10.5" customHeight="1">
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" ht="12.75" customHeight="1">
+    <row r="19" spans="1:21" ht="10.5" customHeight="1">
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="10.5" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1234,7 +1260,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="10.5" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1256,7 +1282,7 @@
       <c r="S21" s="7"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="10.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1280,6 +1306,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A6:U6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -1296,41 +1354,9 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="1.0507246376811594" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　
@@ -1340,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" workbookViewId="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3SI-L164-VIETTX\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D9CC4-6AD3-4C9F-A969-D146F1B0FD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4278D-94CD-4763-8BDF-5EA2E9CBD238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,47 +523,47 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -850,10 +850,10 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="10.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
     <col min="2" max="9" width="6.375" style="6"/>
@@ -863,14 +863,14 @@
     <col min="22" max="16384" width="6.375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+    <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -886,123 +886,123 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
-    </row>
-    <row r="3" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="28"/>
-    </row>
-    <row r="4" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
-    </row>
-    <row r="5" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="26"/>
-    </row>
-    <row r="6" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-    </row>
-    <row r="7" spans="1:21" ht="10.5" customHeight="1">
-      <c r="A7" s="22"/>
+    <row r="2" spans="1:21" ht="7.5" customHeight="1" thickBot="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" ht="7.5" customHeight="1" thickBot="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="30"/>
+    </row>
+    <row r="4" spans="1:21" ht="7.5" customHeight="1" thickBot="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="35"/>
+    </row>
+    <row r="5" spans="1:21" ht="7.5" customHeight="1" thickBot="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="35"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A7" s="33"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1024,8 +1024,8 @@
       <c r="T7" s="11"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="1:21" ht="10.5" customHeight="1">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A8" s="34"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1047,8 +1047,8 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="10.5" customHeight="1">
-      <c r="A9" s="24"/>
+    <row r="9" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A9" s="22"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1070,8 +1070,8 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" ht="10.5" customHeight="1">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A10" s="22"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -1093,8 +1093,8 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:21" ht="10.5" customHeight="1">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A11" s="33"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1116,8 +1116,8 @@
       <c r="T11" s="11"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="1:21" ht="10.5" customHeight="1">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A12" s="34"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1139,8 +1139,8 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21" ht="10.5" customHeight="1">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A13" s="22"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1162,8 +1162,8 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A14" s="23"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -1185,8 +1185,8 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="10.5" customHeight="1">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A15" s="24"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1208,8 +1208,8 @@
       <c r="T15" s="15"/>
       <c r="U15" s="16"/>
     </row>
-    <row r="16" spans="1:21" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A16" s="32"/>
+    <row r="16" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A16" s="25"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
@@ -1233,13 +1233,13 @@
       <c r="T16" s="20"/>
       <c r="U16" s="21"/>
     </row>
-    <row r="18" spans="1:21" ht="10.5" customHeight="1">
+    <row r="18" spans="1:21" ht="12.75" customHeight="1">
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21" ht="10.5" customHeight="1">
+    <row r="19" spans="1:21" ht="12.75" customHeight="1">
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21" s="9" customFormat="1" ht="10.5" customHeight="1">
+    <row r="20" spans="1:21" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1260,7 +1260,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:21" s="9" customFormat="1" ht="10.5" customHeight="1">
+    <row r="21" spans="1:21" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1282,7 +1282,7 @@
       <c r="S21" s="7"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" s="9" customFormat="1" ht="10.5" customHeight="1">
+    <row r="22" spans="1:21" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1306,6 +1306,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="M2:M3"/>
@@ -1322,38 +1354,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="1.0507246376811594" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3SI-L164-VIETTX\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4278D-94CD-4763-8BDF-5EA2E9CBD238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FC2BC-C6BC-41EE-BDB0-567CFCE0A24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,9 +523,33 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -535,35 +559,11 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -850,7 +850,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
@@ -864,13 +864,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -886,123 +886,123 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
-    </row>
-    <row r="3" spans="1:21" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30"/>
-    </row>
-    <row r="4" spans="1:21" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="35"/>
-    </row>
-    <row r="5" spans="1:21" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="35"/>
+    <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="27"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="27"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A7" s="33"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1025,7 +1025,7 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1048,7 +1048,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1071,7 +1071,7 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -1094,7 +1094,7 @@
       <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A11" s="33"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1117,7 +1117,7 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1140,7 +1140,7 @@
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1163,7 +1163,7 @@
       <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -1186,7 +1186,7 @@
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1209,7 +1209,7 @@
       <c r="U15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
@@ -1306,6 +1306,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A6:U6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -1322,38 +1354,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="1.0507246376811594" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3SI-L164-VIETTX\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FC2BC-C6BC-41EE-BDB0-567CFCE0A24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB16A5D6-4070-4C98-83FD-A3D1DED679DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,7 +850,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
@@ -932,7 +932,7 @@
       <c r="T3" s="28"/>
       <c r="U3" s="29"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="35"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3SI-L164-VIETTX\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB16A5D6-4070-4C98-83FD-A3D1DED679DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20376" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="振休確認表(日数管理_紐付あり_年月日) (2)" sheetId="4" r:id="rId1"/>
@@ -46,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]0"/>
   </numFmts>
@@ -523,6 +517,36 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -532,44 +556,14 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 10" xfId="2"/>
+    <cellStyle name="標準 13" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -846,31 +840,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
-    <col min="2" max="9" width="6.375" style="6"/>
-    <col min="10" max="19" width="6.375" style="7"/>
-    <col min="20" max="20" width="6.375" style="9"/>
-    <col min="21" max="21" width="6.375" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="6.375" style="6"/>
+    <col min="1" max="1" width="13.77734375" style="6" customWidth="1"/>
+    <col min="2" max="9" width="6.33203125" style="6"/>
+    <col min="10" max="19" width="6.33203125" style="7"/>
+    <col min="20" max="20" width="6.33203125" style="9"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="6.33203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -887,122 +881,122 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="27"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="35"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1025,7 +1019,7 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1048,7 +1042,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1071,7 +1065,7 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -1094,7 +1088,7 @@
       <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1117,7 +1111,7 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1140,7 +1134,7 @@
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1163,7 +1157,7 @@
       <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -1186,7 +1180,7 @@
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A15" s="32"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1209,7 +1203,7 @@
       <c r="U15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
@@ -1306,6 +1300,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="M2:M3"/>
@@ -1322,62 +1348,29 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="1.0507246376811594" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　
-page&amp;P</oddHeader>
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;7勤次郎株式会社&amp;C&amp;"ＭＳ ゴシック,Regular"&amp;12振休確認表(日数管理_紐付あり_年月日)&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;7&amp;D　&amp;T　page&amp;P</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
-    <col min="2" max="9" width="6.375" style="6"/>
-    <col min="10" max="19" width="6.375" style="7"/>
-    <col min="20" max="20" width="6.375" style="9"/>
-    <col min="21" max="16384" width="6.375" style="6"/>
+    <col min="1" max="1" width="13.77734375" style="6" customWidth="1"/>
+    <col min="2" max="9" width="6.33203125" style="6"/>
+    <col min="10" max="19" width="6.33203125" style="7"/>
+    <col min="20" max="20" width="6.33203125" style="9"/>
+    <col min="21" max="16384" width="6.33203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1">

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20376" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="振休確認表(日数管理_紐付あり_年月日) (2)" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'振休確認表(日数管理_紐付あり_年月日) (2)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'振休確認表(日数管理_紐付あり_年月日) (2)'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -517,9 +516,33 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -529,35 +552,11 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -843,28 +842,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="6" customWidth="1"/>
-    <col min="2" max="9" width="6.33203125" style="6"/>
-    <col min="10" max="19" width="6.33203125" style="7"/>
-    <col min="20" max="20" width="6.33203125" style="9"/>
-    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="6.33203125" style="6"/>
+    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
+    <col min="2" max="9" width="6.375" style="6"/>
+    <col min="10" max="19" width="6.375" style="7"/>
+    <col min="20" max="20" width="6.375" style="9"/>
+    <col min="21" max="21" width="6.375" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="6.375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -881,122 +880,122 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="35"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="27"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="35"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="27"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A7" s="33"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1019,7 +1018,7 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1042,7 +1041,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1065,7 +1064,7 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -1088,7 +1087,7 @@
       <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A11" s="33"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1111,7 +1110,7 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1134,7 +1133,7 @@
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1157,7 +1156,7 @@
       <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -1180,7 +1179,7 @@
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1203,7 +1202,7 @@
       <c r="U15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
@@ -1300,6 +1299,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A6:U6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -1316,38 +1347,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
@@ -1362,15 +1361,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="6" customWidth="1"/>
-    <col min="2" max="9" width="6.33203125" style="6"/>
-    <col min="10" max="19" width="6.33203125" style="7"/>
-    <col min="20" max="20" width="6.33203125" style="9"/>
-    <col min="21" max="16384" width="6.33203125" style="6"/>
+    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
+    <col min="2" max="9" width="6.375" style="6"/>
+    <col min="10" max="19" width="6.375" style="7"/>
+    <col min="20" max="20" width="6.375" style="9"/>
+    <col min="21" max="16384" width="6.375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1">
@@ -1612,7 +1611,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR007_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="20376" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="振休確認表(日数管理_紐付あり_年月日) (2)" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'振休確認表(日数管理_紐付あり_年月日) (2)'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'振休確認表(日数管理_紐付あり_年月日)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'振休確認表(日数管理_紐付あり_年月日) (2)'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -516,6 +517,36 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -525,38 +556,8 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -842,28 +843,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
-    <col min="2" max="9" width="6.375" style="6"/>
-    <col min="10" max="19" width="6.375" style="7"/>
-    <col min="20" max="20" width="6.375" style="9"/>
-    <col min="21" max="21" width="6.375" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="6.375" style="6"/>
+    <col min="1" max="1" width="13.77734375" style="6" customWidth="1"/>
+    <col min="2" max="9" width="6.33203125" style="6"/>
+    <col min="10" max="19" width="6.33203125" style="7"/>
+    <col min="20" max="20" width="6.33203125" style="9"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="6.33203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -880,122 +881,122 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="27"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="35"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
     </row>
     <row r="7" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1018,7 +1019,7 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
@@ -1041,7 +1042,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1064,7 +1065,7 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -1087,7 +1088,7 @@
       <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1110,7 +1111,7 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -1133,7 +1134,7 @@
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -1156,7 +1157,7 @@
       <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -1179,7 +1180,7 @@
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A15" s="32"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1202,7 +1203,7 @@
       <c r="U15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
@@ -1299,6 +1300,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="M2:M3"/>
@@ -1315,38 +1348,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
@@ -1361,15 +1362,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="6" customWidth="1"/>
-    <col min="2" max="9" width="6.375" style="6"/>
-    <col min="10" max="19" width="6.375" style="7"/>
-    <col min="20" max="20" width="6.375" style="9"/>
-    <col min="21" max="16384" width="6.375" style="6"/>
+    <col min="1" max="1" width="13.77734375" style="6" customWidth="1"/>
+    <col min="2" max="9" width="6.33203125" style="6"/>
+    <col min="10" max="19" width="6.33203125" style="7"/>
+    <col min="20" max="20" width="6.33203125" style="9"/>
+    <col min="21" max="16384" width="6.33203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" customHeight="1">
@@ -1611,7 +1612,7 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>